--- a/FFR Data/Exception Handling Folder/Faults_Data.xlsx
+++ b/FFR Data/Exception Handling Folder/Faults_Data.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Desktop\FFR Data\Intermediate Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Documents\UiPath\FFR Automation by RoboticEnterpriseFramework\FFR Data\Exception Handling Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Pivot Table" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -822,7 +823,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
